--- a/app/Spreadsheets/internal/AddressMapVisualUnMapReference.xlsx
+++ b/app/Spreadsheets/internal/AddressMapVisualUnMapReference.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgunter\Google Drive\Sphinx\Bone\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgunter\PycharmProjects\MP2ASCII\app\Spreadsheets\internal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="288">
   <si>
     <t>SPORT</t>
   </si>
@@ -1714,8 +1714,8 @@
   <dimension ref="A1:N886"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A696" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H719" sqref="H719"/>
+      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A606" sqref="A606:XFD606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17355,41 +17355,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
+    <row r="489" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="B489" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C489" s="1">
+      <c r="C489" s="3">
         <v>17</v>
       </c>
-      <c r="D489" s="1">
-        <v>1</v>
-      </c>
-      <c r="E489" s="1">
-        <v>2</v>
-      </c>
-      <c r="F489" s="1">
-        <v>1</v>
-      </c>
-      <c r="G489" s="1">
-        <v>1</v>
-      </c>
-      <c r="H489" s="1">
-        <v>0</v>
-      </c>
-      <c r="I489" s="1">
-        <v>0</v>
-      </c>
-      <c r="J489" s="1" t="s">
+      <c r="D489" s="3">
+        <v>1</v>
+      </c>
+      <c r="E489" s="3">
+        <v>2</v>
+      </c>
+      <c r="F489" s="3">
+        <v>1</v>
+      </c>
+      <c r="G489" s="3">
+        <v>1</v>
+      </c>
+      <c r="H489" s="3">
+        <v>0</v>
+      </c>
+      <c r="I489" s="3">
+        <v>0</v>
+      </c>
+      <c r="J489" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K489" s="1" t="s">
+      <c r="K489" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L489" s="1">
+      <c r="L489" s="3">
         <v>0</v>
       </c>
     </row>
@@ -17431,73 +17431,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
+    <row r="491" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C491">
+      <c r="C491" s="1">
         <v>19</v>
       </c>
-      <c r="D491">
-        <v>1</v>
-      </c>
-      <c r="E491">
-        <v>2</v>
-      </c>
-      <c r="F491">
-        <v>1</v>
-      </c>
-      <c r="G491">
-        <v>3</v>
-      </c>
-      <c r="H491">
-        <v>0</v>
-      </c>
-      <c r="I491">
-        <v>0</v>
-      </c>
-      <c r="K491" t="s">
+      <c r="D491" s="1">
+        <v>1</v>
+      </c>
+      <c r="E491" s="1">
+        <v>2</v>
+      </c>
+      <c r="F491" s="1">
+        <v>1</v>
+      </c>
+      <c r="G491" s="1">
+        <v>3</v>
+      </c>
+      <c r="H491" s="1">
+        <v>0</v>
+      </c>
+      <c r="I491" s="1">
+        <v>0</v>
+      </c>
+      <c r="K491" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="L491" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C492">
+      <c r="C492" s="1">
         <v>20</v>
       </c>
-      <c r="D492">
-        <v>1</v>
-      </c>
-      <c r="E492">
-        <v>2</v>
-      </c>
-      <c r="F492">
-        <v>1</v>
-      </c>
-      <c r="G492">
-        <v>4</v>
-      </c>
-      <c r="H492" t="s">
+      <c r="D492" s="1">
+        <v>1</v>
+      </c>
+      <c r="E492" s="1">
+        <v>2</v>
+      </c>
+      <c r="F492" s="1">
+        <v>1</v>
+      </c>
+      <c r="G492" s="1">
+        <v>4</v>
+      </c>
+      <c r="H492" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I492">
-        <v>0</v>
-      </c>
-      <c r="K492" t="s">
+      <c r="I492" s="1">
+        <v>0</v>
+      </c>
+      <c r="K492" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L492">
+      <c r="L492" s="1">
         <v>0</v>
       </c>
     </row>
@@ -18942,41 +18942,41 @@
         <v>64</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
+    <row r="538" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C538">
+      <c r="C538" s="1">
         <v>12</v>
       </c>
-      <c r="D538">
-        <v>1</v>
-      </c>
-      <c r="E538">
-        <v>1</v>
-      </c>
-      <c r="F538">
-        <v>3</v>
-      </c>
-      <c r="G538">
-        <v>4</v>
-      </c>
-      <c r="H538" t="s">
+      <c r="D538" s="1">
+        <v>1</v>
+      </c>
+      <c r="E538" s="1">
+        <v>1</v>
+      </c>
+      <c r="F538" s="1">
+        <v>3</v>
+      </c>
+      <c r="G538" s="1">
+        <v>4</v>
+      </c>
+      <c r="H538" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I538">
-        <v>0</v>
-      </c>
-      <c r="K538">
-        <v>0</v>
-      </c>
-      <c r="L538">
-        <v>0</v>
-      </c>
-      <c r="M538" t="s">
+      <c r="I538" s="1">
+        <v>0</v>
+      </c>
+      <c r="K538" s="1">
+        <v>0</v>
+      </c>
+      <c r="L538" s="1">
+        <v>0</v>
+      </c>
+      <c r="M538" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -20716,7 +20716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>154</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="595" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>154</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>154</v>
       </c>
@@ -20827,7 +20827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="597" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>154</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="598" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>154</v>
       </c>
@@ -20900,45 +20900,48 @@
         <v>27</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
+    <row r="599" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C599">
+      <c r="C599" s="1">
         <v>12</v>
       </c>
-      <c r="D599">
-        <v>1</v>
-      </c>
-      <c r="E599">
-        <v>1</v>
-      </c>
-      <c r="F599">
-        <v>3</v>
-      </c>
-      <c r="G599">
-        <v>4</v>
-      </c>
-      <c r="H599" t="s">
+      <c r="D599" s="1">
+        <v>1</v>
+      </c>
+      <c r="E599" s="1">
+        <v>1</v>
+      </c>
+      <c r="F599" s="1">
+        <v>3</v>
+      </c>
+      <c r="G599" s="1">
+        <v>4</v>
+      </c>
+      <c r="H599" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I599">
-        <v>0</v>
-      </c>
-      <c r="K599">
-        <v>0</v>
-      </c>
-      <c r="L599">
-        <v>0</v>
-      </c>
-      <c r="M599" t="s">
+      <c r="I599" s="1">
+        <v>0</v>
+      </c>
+      <c r="K599" s="1">
+        <v>0</v>
+      </c>
+      <c r="L599" s="1">
+        <v>0</v>
+      </c>
+      <c r="M599" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N599" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>154</v>
       </c>
@@ -20973,7 +20976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>154</v>
       </c>
@@ -21008,7 +21011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>154</v>
       </c>
@@ -21043,7 +21046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>154</v>
       </c>
@@ -21078,45 +21081,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="606" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+    <row r="606" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B606" s="1" t="s">
+      <c r="B606" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C606" s="1">
+      <c r="C606" s="3">
         <v>17</v>
       </c>
-      <c r="D606" s="1">
-        <v>1</v>
-      </c>
-      <c r="E606" s="1">
-        <v>2</v>
-      </c>
-      <c r="F606" s="1">
-        <v>1</v>
-      </c>
-      <c r="G606" s="1">
-        <v>1</v>
-      </c>
-      <c r="H606" s="1">
-        <v>0</v>
-      </c>
-      <c r="I606" s="1">
-        <v>0</v>
-      </c>
-      <c r="J606" s="1" t="s">
+      <c r="D606" s="3">
+        <v>1</v>
+      </c>
+      <c r="E606" s="3">
+        <v>2</v>
+      </c>
+      <c r="F606" s="3">
+        <v>1</v>
+      </c>
+      <c r="G606" s="3">
+        <v>1</v>
+      </c>
+      <c r="H606" s="3">
+        <v>0</v>
+      </c>
+      <c r="I606" s="3">
+        <v>0</v>
+      </c>
+      <c r="J606" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K606" s="1" t="s">
+      <c r="K606" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L606" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L606" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>154</v>
       </c>
@@ -21154,73 +21157,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+    <row r="608" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B608" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C608">
+      <c r="C608" s="1">
         <v>19</v>
       </c>
-      <c r="D608">
-        <v>1</v>
-      </c>
-      <c r="E608">
-        <v>2</v>
-      </c>
-      <c r="F608">
-        <v>1</v>
-      </c>
-      <c r="G608">
-        <v>3</v>
-      </c>
-      <c r="H608">
-        <v>0</v>
-      </c>
-      <c r="I608">
-        <v>0</v>
-      </c>
-      <c r="K608" t="s">
+      <c r="D608" s="1">
+        <v>1</v>
+      </c>
+      <c r="E608" s="1">
+        <v>2</v>
+      </c>
+      <c r="F608" s="1">
+        <v>1</v>
+      </c>
+      <c r="G608" s="1">
+        <v>3</v>
+      </c>
+      <c r="H608" s="1">
+        <v>0</v>
+      </c>
+      <c r="I608" s="1">
+        <v>0</v>
+      </c>
+      <c r="K608" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L608">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
+      <c r="L608" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B609" t="s">
+      <c r="B609" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C609">
+      <c r="C609" s="1">
         <v>20</v>
       </c>
-      <c r="D609">
-        <v>1</v>
-      </c>
-      <c r="E609">
-        <v>2</v>
-      </c>
-      <c r="F609">
-        <v>1</v>
-      </c>
-      <c r="G609">
-        <v>4</v>
-      </c>
-      <c r="H609" t="s">
+      <c r="D609" s="1">
+        <v>1</v>
+      </c>
+      <c r="E609" s="1">
+        <v>2</v>
+      </c>
+      <c r="F609" s="1">
+        <v>1</v>
+      </c>
+      <c r="G609" s="1">
+        <v>4</v>
+      </c>
+      <c r="H609" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I609">
-        <v>0</v>
-      </c>
-      <c r="K609" t="s">
+      <c r="I609" s="1">
+        <v>0</v>
+      </c>
+      <c r="K609" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L609">
+      <c r="L609" s="1">
         <v>0</v>
       </c>
     </row>

--- a/app/Spreadsheets/internal/AddressMapVisualUnMapReference.xlsx
+++ b/app/Spreadsheets/internal/AddressMapVisualUnMapReference.xlsx
@@ -1714,8 +1714,8 @@
   <dimension ref="A1:N886"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A570" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A606" sqref="A606:XFD606"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8354,41 +8354,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
+    <row r="206" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="3">
         <v>18</v>
       </c>
-      <c r="D206" s="4">
-        <v>2</v>
-      </c>
-      <c r="E206" s="4">
-        <v>2</v>
-      </c>
-      <c r="F206" s="4">
-        <v>1</v>
-      </c>
-      <c r="G206" s="4">
-        <v>2</v>
-      </c>
-      <c r="H206" s="4">
-        <v>0</v>
-      </c>
-      <c r="I206" s="4">
-        <v>0</v>
-      </c>
-      <c r="J206" s="4" t="s">
+      <c r="D206" s="3">
+        <v>2</v>
+      </c>
+      <c r="E206" s="3">
+        <v>2</v>
+      </c>
+      <c r="F206" s="3">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3">
+        <v>2</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+      <c r="I206" s="3">
+        <v>0</v>
+      </c>
+      <c r="J206" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K206" s="4" t="s">
+      <c r="K206" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L206" s="4" t="s">
+      <c r="L206" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -24751,7 +24751,7 @@
       <c r="G722" s="1">
         <v>2</v>
       </c>
-      <c r="H722" s="3" t="s">
+      <c r="H722" s="1" t="s">
         <v>182</v>
       </c>
       <c r="I722" s="1">
@@ -27439,117 +27439,117 @@
       </c>
     </row>
     <row r="806" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A807" t="s">
+    <row r="807" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A807" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B807" t="s">
+      <c r="B807" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C807">
-        <v>1</v>
-      </c>
-      <c r="D807">
-        <v>1</v>
-      </c>
-      <c r="E807">
-        <v>1</v>
-      </c>
-      <c r="F807">
-        <v>1</v>
-      </c>
-      <c r="G807">
-        <v>1</v>
-      </c>
-      <c r="H807">
-        <v>0</v>
-      </c>
-      <c r="I807">
-        <v>0</v>
-      </c>
-      <c r="J807" t="s">
+      <c r="C807" s="1">
+        <v>1</v>
+      </c>
+      <c r="D807" s="1">
+        <v>1</v>
+      </c>
+      <c r="E807" s="1">
+        <v>1</v>
+      </c>
+      <c r="F807" s="1">
+        <v>1</v>
+      </c>
+      <c r="G807" s="1">
+        <v>1</v>
+      </c>
+      <c r="H807" s="1">
+        <v>0</v>
+      </c>
+      <c r="I807" s="1">
+        <v>0</v>
+      </c>
+      <c r="J807" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K807" t="s">
+      <c r="K807" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="L807" t="s">
+      <c r="L807" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A808" t="s">
+    <row r="808" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A808" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B808" t="s">
+      <c r="B808" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C808">
-        <v>2</v>
-      </c>
-      <c r="D808">
-        <v>1</v>
-      </c>
-      <c r="E808">
-        <v>1</v>
-      </c>
-      <c r="F808">
-        <v>1</v>
-      </c>
-      <c r="G808">
-        <v>2</v>
-      </c>
-      <c r="H808">
-        <v>0</v>
-      </c>
-      <c r="I808">
-        <v>0</v>
-      </c>
-      <c r="J808" t="s">
+      <c r="C808" s="1">
+        <v>2</v>
+      </c>
+      <c r="D808" s="1">
+        <v>1</v>
+      </c>
+      <c r="E808" s="1">
+        <v>1</v>
+      </c>
+      <c r="F808" s="1">
+        <v>1</v>
+      </c>
+      <c r="G808" s="1">
+        <v>2</v>
+      </c>
+      <c r="H808" s="1">
+        <v>0</v>
+      </c>
+      <c r="I808" s="1">
+        <v>0</v>
+      </c>
+      <c r="J808" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K808" t="s">
+      <c r="K808" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L808" t="s">
+      <c r="L808" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A809" t="s">
+    <row r="809" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A809" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B809" t="s">
+      <c r="B809" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C809">
-        <v>3</v>
-      </c>
-      <c r="D809">
-        <v>1</v>
-      </c>
-      <c r="E809">
-        <v>1</v>
-      </c>
-      <c r="F809">
-        <v>1</v>
-      </c>
-      <c r="G809">
-        <v>3</v>
-      </c>
-      <c r="H809">
-        <v>0</v>
-      </c>
-      <c r="I809">
-        <v>0</v>
-      </c>
-      <c r="J809" t="s">
+      <c r="C809" s="1">
+        <v>3</v>
+      </c>
+      <c r="D809" s="1">
+        <v>1</v>
+      </c>
+      <c r="E809" s="1">
+        <v>1</v>
+      </c>
+      <c r="F809" s="1">
+        <v>1</v>
+      </c>
+      <c r="G809" s="1">
+        <v>3</v>
+      </c>
+      <c r="H809" s="1">
+        <v>0</v>
+      </c>
+      <c r="I809" s="1">
+        <v>0</v>
+      </c>
+      <c r="J809" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K809" t="s">
+      <c r="K809" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="L809" t="s">
+      <c r="L809" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -27588,117 +27588,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A812" t="s">
+    <row r="812" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A812" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B812" t="s">
+      <c r="B812" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C812">
+      <c r="C812" s="1">
         <v>5</v>
       </c>
-      <c r="D812">
-        <v>1</v>
-      </c>
-      <c r="E812">
-        <v>1</v>
-      </c>
-      <c r="F812">
-        <v>2</v>
-      </c>
-      <c r="G812">
-        <v>1</v>
-      </c>
-      <c r="H812">
-        <v>0</v>
-      </c>
-      <c r="I812">
-        <v>0</v>
-      </c>
-      <c r="J812" t="s">
+      <c r="D812" s="1">
+        <v>1</v>
+      </c>
+      <c r="E812" s="1">
+        <v>1</v>
+      </c>
+      <c r="F812" s="1">
+        <v>2</v>
+      </c>
+      <c r="G812" s="1">
+        <v>1</v>
+      </c>
+      <c r="H812" s="1">
+        <v>0</v>
+      </c>
+      <c r="I812" s="1">
+        <v>0</v>
+      </c>
+      <c r="J812" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="K812" t="s">
+      <c r="K812" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L812" t="s">
+      <c r="L812" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A813" t="s">
+    <row r="813" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A813" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B813" t="s">
+      <c r="B813" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C813">
+      <c r="C813" s="1">
         <v>6</v>
       </c>
-      <c r="D813">
-        <v>1</v>
-      </c>
-      <c r="E813">
-        <v>1</v>
-      </c>
-      <c r="F813">
-        <v>2</v>
-      </c>
-      <c r="G813">
-        <v>2</v>
-      </c>
-      <c r="H813">
-        <v>0</v>
-      </c>
-      <c r="I813">
-        <v>0</v>
-      </c>
-      <c r="J813" t="s">
+      <c r="D813" s="1">
+        <v>1</v>
+      </c>
+      <c r="E813" s="1">
+        <v>1</v>
+      </c>
+      <c r="F813" s="1">
+        <v>2</v>
+      </c>
+      <c r="G813" s="1">
+        <v>2</v>
+      </c>
+      <c r="H813" s="1">
+        <v>0</v>
+      </c>
+      <c r="I813" s="1">
+        <v>0</v>
+      </c>
+      <c r="J813" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K813" t="s">
+      <c r="K813" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L813" t="s">
+      <c r="L813" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A814" t="s">
+    <row r="814" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A814" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B814" t="s">
+      <c r="B814" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C814">
+      <c r="C814" s="1">
         <v>7</v>
       </c>
-      <c r="D814">
-        <v>1</v>
-      </c>
-      <c r="E814">
-        <v>1</v>
-      </c>
-      <c r="F814">
-        <v>2</v>
-      </c>
-      <c r="G814">
-        <v>3</v>
-      </c>
-      <c r="H814">
-        <v>0</v>
-      </c>
-      <c r="I814">
-        <v>0</v>
-      </c>
-      <c r="J814" t="s">
+      <c r="D814" s="1">
+        <v>1</v>
+      </c>
+      <c r="E814" s="1">
+        <v>1</v>
+      </c>
+      <c r="F814" s="1">
+        <v>2</v>
+      </c>
+      <c r="G814" s="1">
+        <v>3</v>
+      </c>
+      <c r="H814" s="1">
+        <v>0</v>
+      </c>
+      <c r="I814" s="1">
+        <v>0</v>
+      </c>
+      <c r="J814" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K814" t="s">
+      <c r="K814" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L814" t="s">
+      <c r="L814" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -27737,117 +27737,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A817" t="s">
+    <row r="817" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A817" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B817" t="s">
+      <c r="B817" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C817">
+      <c r="C817" s="1">
         <v>9</v>
       </c>
-      <c r="D817">
-        <v>1</v>
-      </c>
-      <c r="E817">
-        <v>1</v>
-      </c>
-      <c r="F817">
-        <v>3</v>
-      </c>
-      <c r="G817">
-        <v>1</v>
-      </c>
-      <c r="H817">
-        <v>0</v>
-      </c>
-      <c r="I817">
-        <v>0</v>
-      </c>
-      <c r="J817" t="s">
+      <c r="D817" s="1">
+        <v>1</v>
+      </c>
+      <c r="E817" s="1">
+        <v>1</v>
+      </c>
+      <c r="F817" s="1">
+        <v>3</v>
+      </c>
+      <c r="G817" s="1">
+        <v>1</v>
+      </c>
+      <c r="H817" s="1">
+        <v>0</v>
+      </c>
+      <c r="I817" s="1">
+        <v>0</v>
+      </c>
+      <c r="J817" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K817" t="s">
+      <c r="K817" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L817" t="s">
+      <c r="L817" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
+    <row r="818" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B818" t="s">
+      <c r="B818" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C818">
+      <c r="C818" s="1">
         <v>10</v>
       </c>
-      <c r="D818">
-        <v>1</v>
-      </c>
-      <c r="E818">
-        <v>1</v>
-      </c>
-      <c r="F818">
-        <v>3</v>
-      </c>
-      <c r="G818">
-        <v>2</v>
-      </c>
-      <c r="H818">
-        <v>0</v>
-      </c>
-      <c r="I818">
-        <v>0</v>
-      </c>
-      <c r="J818" t="s">
+      <c r="D818" s="1">
+        <v>1</v>
+      </c>
+      <c r="E818" s="1">
+        <v>1</v>
+      </c>
+      <c r="F818" s="1">
+        <v>3</v>
+      </c>
+      <c r="G818" s="1">
+        <v>2</v>
+      </c>
+      <c r="H818" s="1">
+        <v>0</v>
+      </c>
+      <c r="I818" s="1">
+        <v>0</v>
+      </c>
+      <c r="J818" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K818" t="s">
+      <c r="K818" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="L818" t="s">
+      <c r="L818" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A819" t="s">
+    <row r="819" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B819" t="s">
+      <c r="B819" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C819">
+      <c r="C819" s="1">
         <v>11</v>
       </c>
-      <c r="D819">
-        <v>1</v>
-      </c>
-      <c r="E819">
-        <v>1</v>
-      </c>
-      <c r="F819">
-        <v>3</v>
-      </c>
-      <c r="G819">
-        <v>3</v>
-      </c>
-      <c r="H819">
-        <v>0</v>
-      </c>
-      <c r="I819">
-        <v>0</v>
-      </c>
-      <c r="J819" t="s">
+      <c r="D819" s="1">
+        <v>1</v>
+      </c>
+      <c r="E819" s="1">
+        <v>1</v>
+      </c>
+      <c r="F819" s="1">
+        <v>3</v>
+      </c>
+      <c r="G819" s="1">
+        <v>3</v>
+      </c>
+      <c r="H819" s="1">
+        <v>0</v>
+      </c>
+      <c r="I819" s="1">
+        <v>0</v>
+      </c>
+      <c r="J819" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K819" t="s">
+      <c r="K819" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="L819" t="s">
+      <c r="L819" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -27886,117 +27886,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A822" t="s">
+    <row r="822" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A822" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B822" t="s">
+      <c r="B822" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C822">
+      <c r="C822" s="1">
         <v>13</v>
       </c>
-      <c r="D822">
-        <v>1</v>
-      </c>
-      <c r="E822">
-        <v>1</v>
-      </c>
-      <c r="F822">
-        <v>4</v>
-      </c>
-      <c r="G822">
-        <v>1</v>
-      </c>
-      <c r="H822">
-        <v>0</v>
-      </c>
-      <c r="I822">
-        <v>0</v>
-      </c>
-      <c r="J822" t="s">
+      <c r="D822" s="1">
+        <v>1</v>
+      </c>
+      <c r="E822" s="1">
+        <v>1</v>
+      </c>
+      <c r="F822" s="1">
+        <v>4</v>
+      </c>
+      <c r="G822" s="1">
+        <v>1</v>
+      </c>
+      <c r="H822" s="1">
+        <v>0</v>
+      </c>
+      <c r="I822" s="1">
+        <v>0</v>
+      </c>
+      <c r="J822" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K822" t="s">
+      <c r="K822" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="L822" t="s">
+      <c r="L822" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A823" t="s">
+    <row r="823" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A823" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B823" t="s">
+      <c r="B823" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C823">
+      <c r="C823" s="1">
         <v>14</v>
       </c>
-      <c r="D823">
-        <v>1</v>
-      </c>
-      <c r="E823">
-        <v>1</v>
-      </c>
-      <c r="F823">
-        <v>4</v>
-      </c>
-      <c r="G823">
-        <v>2</v>
-      </c>
-      <c r="H823">
-        <v>0</v>
-      </c>
-      <c r="I823">
-        <v>0</v>
-      </c>
-      <c r="J823" t="s">
+      <c r="D823" s="1">
+        <v>1</v>
+      </c>
+      <c r="E823" s="1">
+        <v>1</v>
+      </c>
+      <c r="F823" s="1">
+        <v>4</v>
+      </c>
+      <c r="G823" s="1">
+        <v>2</v>
+      </c>
+      <c r="H823" s="1">
+        <v>0</v>
+      </c>
+      <c r="I823" s="1">
+        <v>0</v>
+      </c>
+      <c r="J823" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K823" t="s">
+      <c r="K823" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L823" t="s">
+      <c r="L823" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
+    <row r="824" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A824" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B824" t="s">
+      <c r="B824" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C824">
+      <c r="C824" s="1">
         <v>15</v>
       </c>
-      <c r="D824">
-        <v>1</v>
-      </c>
-      <c r="E824">
-        <v>1</v>
-      </c>
-      <c r="F824">
-        <v>4</v>
-      </c>
-      <c r="G824">
-        <v>3</v>
-      </c>
-      <c r="H824">
-        <v>0</v>
-      </c>
-      <c r="I824">
-        <v>0</v>
-      </c>
-      <c r="J824" t="s">
+      <c r="D824" s="1">
+        <v>1</v>
+      </c>
+      <c r="E824" s="1">
+        <v>1</v>
+      </c>
+      <c r="F824" s="1">
+        <v>4</v>
+      </c>
+      <c r="G824" s="1">
+        <v>3</v>
+      </c>
+      <c r="H824" s="1">
+        <v>0</v>
+      </c>
+      <c r="I824" s="1">
+        <v>0</v>
+      </c>
+      <c r="J824" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K824" t="s">
+      <c r="K824" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L824" t="s">
+      <c r="L824" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -28035,117 +28035,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
+    <row r="827" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A827" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B827" t="s">
+      <c r="B827" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C827">
+      <c r="C827" s="1">
         <v>17</v>
       </c>
-      <c r="D827">
-        <v>1</v>
-      </c>
-      <c r="E827">
-        <v>2</v>
-      </c>
-      <c r="F827">
-        <v>1</v>
-      </c>
-      <c r="G827">
-        <v>1</v>
-      </c>
-      <c r="H827">
-        <v>0</v>
-      </c>
-      <c r="I827">
-        <v>0</v>
-      </c>
-      <c r="J827" t="s">
+      <c r="D827" s="1">
+        <v>1</v>
+      </c>
+      <c r="E827" s="1">
+        <v>2</v>
+      </c>
+      <c r="F827" s="1">
+        <v>1</v>
+      </c>
+      <c r="G827" s="1">
+        <v>1</v>
+      </c>
+      <c r="H827" s="1">
+        <v>0</v>
+      </c>
+      <c r="I827" s="1">
+        <v>0</v>
+      </c>
+      <c r="J827" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K827" t="s">
+      <c r="K827" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L827" t="s">
+      <c r="L827" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
+    <row r="828" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A828" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B828" t="s">
+      <c r="B828" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C828">
+      <c r="C828" s="1">
         <v>18</v>
       </c>
-      <c r="D828">
-        <v>1</v>
-      </c>
-      <c r="E828">
-        <v>2</v>
-      </c>
-      <c r="F828">
-        <v>1</v>
-      </c>
-      <c r="G828">
-        <v>2</v>
-      </c>
-      <c r="H828">
-        <v>0</v>
-      </c>
-      <c r="I828">
-        <v>0</v>
-      </c>
-      <c r="J828" t="s">
+      <c r="D828" s="1">
+        <v>1</v>
+      </c>
+      <c r="E828" s="1">
+        <v>2</v>
+      </c>
+      <c r="F828" s="1">
+        <v>1</v>
+      </c>
+      <c r="G828" s="1">
+        <v>2</v>
+      </c>
+      <c r="H828" s="1">
+        <v>0</v>
+      </c>
+      <c r="I828" s="1">
+        <v>0</v>
+      </c>
+      <c r="J828" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K828" t="s">
+      <c r="K828" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L828" t="s">
+      <c r="L828" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
+    <row r="829" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A829" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B829" t="s">
+      <c r="B829" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C829">
+      <c r="C829" s="1">
         <v>19</v>
       </c>
-      <c r="D829">
-        <v>1</v>
-      </c>
-      <c r="E829">
-        <v>2</v>
-      </c>
-      <c r="F829">
-        <v>1</v>
-      </c>
-      <c r="G829">
-        <v>3</v>
-      </c>
-      <c r="H829">
-        <v>0</v>
-      </c>
-      <c r="I829">
-        <v>0</v>
-      </c>
-      <c r="J829" t="s">
+      <c r="D829" s="1">
+        <v>1</v>
+      </c>
+      <c r="E829" s="1">
+        <v>2</v>
+      </c>
+      <c r="F829" s="1">
+        <v>1</v>
+      </c>
+      <c r="G829" s="1">
+        <v>3</v>
+      </c>
+      <c r="H829" s="1">
+        <v>0</v>
+      </c>
+      <c r="I829" s="1">
+        <v>0</v>
+      </c>
+      <c r="J829" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K829" t="s">
+      <c r="K829" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L829" t="s">
+      <c r="L829" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -28184,117 +28184,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A832" t="s">
+    <row r="832" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A832" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B832" t="s">
+      <c r="B832" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C832">
+      <c r="C832" s="1">
         <v>21</v>
       </c>
-      <c r="D832">
-        <v>1</v>
-      </c>
-      <c r="E832">
-        <v>2</v>
-      </c>
-      <c r="F832">
-        <v>2</v>
-      </c>
-      <c r="G832">
-        <v>1</v>
-      </c>
-      <c r="H832">
-        <v>0</v>
-      </c>
-      <c r="I832">
-        <v>0</v>
-      </c>
-      <c r="J832" t="s">
+      <c r="D832" s="1">
+        <v>1</v>
+      </c>
+      <c r="E832" s="1">
+        <v>2</v>
+      </c>
+      <c r="F832" s="1">
+        <v>2</v>
+      </c>
+      <c r="G832" s="1">
+        <v>1</v>
+      </c>
+      <c r="H832" s="1">
+        <v>0</v>
+      </c>
+      <c r="I832" s="1">
+        <v>0</v>
+      </c>
+      <c r="J832" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K832" t="s">
+      <c r="K832" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L832" t="s">
+      <c r="L832" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A833" t="s">
+    <row r="833" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A833" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B833" t="s">
+      <c r="B833" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C833">
+      <c r="C833" s="1">
         <v>22</v>
       </c>
-      <c r="D833">
-        <v>1</v>
-      </c>
-      <c r="E833">
-        <v>2</v>
-      </c>
-      <c r="F833">
-        <v>2</v>
-      </c>
-      <c r="G833">
-        <v>2</v>
-      </c>
-      <c r="H833">
-        <v>0</v>
-      </c>
-      <c r="I833">
-        <v>0</v>
-      </c>
-      <c r="J833" t="s">
+      <c r="D833" s="1">
+        <v>1</v>
+      </c>
+      <c r="E833" s="1">
+        <v>2</v>
+      </c>
+      <c r="F833" s="1">
+        <v>2</v>
+      </c>
+      <c r="G833" s="1">
+        <v>2</v>
+      </c>
+      <c r="H833" s="1">
+        <v>0</v>
+      </c>
+      <c r="I833" s="1">
+        <v>0</v>
+      </c>
+      <c r="J833" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K833" t="s">
+      <c r="K833" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="L833" t="s">
+      <c r="L833" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A834" t="s">
+    <row r="834" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A834" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B834" t="s">
+      <c r="B834" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C834">
+      <c r="C834" s="1">
         <v>23</v>
       </c>
-      <c r="D834">
-        <v>1</v>
-      </c>
-      <c r="E834">
-        <v>2</v>
-      </c>
-      <c r="F834">
-        <v>2</v>
-      </c>
-      <c r="G834">
-        <v>3</v>
-      </c>
-      <c r="H834">
-        <v>0</v>
-      </c>
-      <c r="I834">
-        <v>0</v>
-      </c>
-      <c r="J834" t="s">
+      <c r="D834" s="1">
+        <v>1</v>
+      </c>
+      <c r="E834" s="1">
+        <v>2</v>
+      </c>
+      <c r="F834" s="1">
+        <v>2</v>
+      </c>
+      <c r="G834" s="1">
+        <v>3</v>
+      </c>
+      <c r="H834" s="1">
+        <v>0</v>
+      </c>
+      <c r="I834" s="1">
+        <v>0</v>
+      </c>
+      <c r="J834" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="K834" t="s">
+      <c r="K834" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L834" t="s">
+      <c r="L834" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -28625,117 +28625,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A847" t="s">
+    <row r="847" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A847" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B847" t="s">
+      <c r="B847" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C847">
+      <c r="C847" s="1">
         <v>33</v>
       </c>
-      <c r="D847">
-        <v>1</v>
-      </c>
-      <c r="E847">
-        <v>1</v>
-      </c>
-      <c r="F847">
-        <v>1</v>
-      </c>
-      <c r="G847">
-        <v>1</v>
-      </c>
-      <c r="H847">
-        <v>1</v>
-      </c>
-      <c r="I847">
-        <v>0</v>
-      </c>
-      <c r="J847" t="s">
+      <c r="D847" s="1">
+        <v>1</v>
+      </c>
+      <c r="E847" s="1">
+        <v>1</v>
+      </c>
+      <c r="F847" s="1">
+        <v>1</v>
+      </c>
+      <c r="G847" s="1">
+        <v>1</v>
+      </c>
+      <c r="H847" s="1">
+        <v>1</v>
+      </c>
+      <c r="I847" s="1">
+        <v>0</v>
+      </c>
+      <c r="J847" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K847" t="s">
+      <c r="K847" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L847" t="s">
+      <c r="L847" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A848" t="s">
+    <row r="848" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A848" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B848" t="s">
+      <c r="B848" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C848">
+      <c r="C848" s="1">
         <v>34</v>
       </c>
-      <c r="D848">
-        <v>1</v>
-      </c>
-      <c r="E848">
-        <v>1</v>
-      </c>
-      <c r="F848">
-        <v>1</v>
-      </c>
-      <c r="G848">
-        <v>2</v>
-      </c>
-      <c r="H848">
-        <v>1</v>
-      </c>
-      <c r="I848">
-        <v>0</v>
-      </c>
-      <c r="J848" t="s">
+      <c r="D848" s="1">
+        <v>1</v>
+      </c>
+      <c r="E848" s="1">
+        <v>1</v>
+      </c>
+      <c r="F848" s="1">
+        <v>1</v>
+      </c>
+      <c r="G848" s="1">
+        <v>2</v>
+      </c>
+      <c r="H848" s="1">
+        <v>1</v>
+      </c>
+      <c r="I848" s="1">
+        <v>0</v>
+      </c>
+      <c r="J848" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K848" t="s">
+      <c r="K848" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L848" t="s">
+      <c r="L848" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A849" t="s">
+    <row r="849" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A849" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B849" t="s">
+      <c r="B849" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C849">
+      <c r="C849" s="1">
         <v>35</v>
       </c>
-      <c r="D849">
-        <v>1</v>
-      </c>
-      <c r="E849">
-        <v>1</v>
-      </c>
-      <c r="F849">
-        <v>1</v>
-      </c>
-      <c r="G849">
-        <v>3</v>
-      </c>
-      <c r="H849">
-        <v>1</v>
-      </c>
-      <c r="I849">
-        <v>0</v>
-      </c>
-      <c r="J849" t="s">
+      <c r="D849" s="1">
+        <v>1</v>
+      </c>
+      <c r="E849" s="1">
+        <v>1</v>
+      </c>
+      <c r="F849" s="1">
+        <v>1</v>
+      </c>
+      <c r="G849" s="1">
+        <v>3</v>
+      </c>
+      <c r="H849" s="1">
+        <v>1</v>
+      </c>
+      <c r="I849" s="1">
+        <v>0</v>
+      </c>
+      <c r="J849" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="K849" t="s">
+      <c r="K849" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L849" t="s">
+      <c r="L849" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -28774,117 +28774,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A852" t="s">
+    <row r="852" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A852" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B852" t="s">
+      <c r="B852" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C852">
+      <c r="C852" s="1">
         <v>37</v>
       </c>
-      <c r="D852">
-        <v>1</v>
-      </c>
-      <c r="E852">
-        <v>1</v>
-      </c>
-      <c r="F852">
-        <v>2</v>
-      </c>
-      <c r="G852">
-        <v>1</v>
-      </c>
-      <c r="H852">
-        <v>1</v>
-      </c>
-      <c r="I852">
-        <v>0</v>
-      </c>
-      <c r="J852" t="s">
+      <c r="D852" s="1">
+        <v>1</v>
+      </c>
+      <c r="E852" s="1">
+        <v>1</v>
+      </c>
+      <c r="F852" s="1">
+        <v>2</v>
+      </c>
+      <c r="G852" s="1">
+        <v>1</v>
+      </c>
+      <c r="H852" s="1">
+        <v>1</v>
+      </c>
+      <c r="I852" s="1">
+        <v>0</v>
+      </c>
+      <c r="J852" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K852" t="s">
+      <c r="K852" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L852" t="s">
+      <c r="L852" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A853" t="s">
+    <row r="853" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A853" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B853" t="s">
+      <c r="B853" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C853">
+      <c r="C853" s="1">
         <v>38</v>
       </c>
-      <c r="D853">
-        <v>1</v>
-      </c>
-      <c r="E853">
-        <v>1</v>
-      </c>
-      <c r="F853">
-        <v>2</v>
-      </c>
-      <c r="G853">
-        <v>2</v>
-      </c>
-      <c r="H853">
-        <v>1</v>
-      </c>
-      <c r="I853">
-        <v>0</v>
-      </c>
-      <c r="J853" t="s">
+      <c r="D853" s="1">
+        <v>1</v>
+      </c>
+      <c r="E853" s="1">
+        <v>1</v>
+      </c>
+      <c r="F853" s="1">
+        <v>2</v>
+      </c>
+      <c r="G853" s="1">
+        <v>2</v>
+      </c>
+      <c r="H853" s="1">
+        <v>1</v>
+      </c>
+      <c r="I853" s="1">
+        <v>0</v>
+      </c>
+      <c r="J853" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K853" t="s">
+      <c r="K853" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L853" t="s">
+      <c r="L853" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A854" t="s">
+    <row r="854" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A854" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B854" t="s">
+      <c r="B854" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C854">
+      <c r="C854" s="1">
         <v>39</v>
       </c>
-      <c r="D854">
-        <v>1</v>
-      </c>
-      <c r="E854">
-        <v>1</v>
-      </c>
-      <c r="F854">
-        <v>2</v>
-      </c>
-      <c r="G854">
-        <v>3</v>
-      </c>
-      <c r="H854">
-        <v>1</v>
-      </c>
-      <c r="I854">
-        <v>0</v>
-      </c>
-      <c r="J854" t="s">
+      <c r="D854" s="1">
+        <v>1</v>
+      </c>
+      <c r="E854" s="1">
+        <v>1</v>
+      </c>
+      <c r="F854" s="1">
+        <v>2</v>
+      </c>
+      <c r="G854" s="1">
+        <v>3</v>
+      </c>
+      <c r="H854" s="1">
+        <v>1</v>
+      </c>
+      <c r="I854" s="1">
+        <v>0</v>
+      </c>
+      <c r="J854" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K854" t="s">
+      <c r="K854" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L854" t="s">
+      <c r="L854" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -28923,117 +28923,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A857" t="s">
+    <row r="857" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B857" t="s">
+      <c r="B857" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C857">
+      <c r="C857" s="1">
         <v>41</v>
       </c>
-      <c r="D857">
-        <v>1</v>
-      </c>
-      <c r="E857">
-        <v>1</v>
-      </c>
-      <c r="F857">
-        <v>3</v>
-      </c>
-      <c r="G857">
-        <v>1</v>
-      </c>
-      <c r="H857">
-        <v>1</v>
-      </c>
-      <c r="I857">
-        <v>0</v>
-      </c>
-      <c r="J857" t="s">
+      <c r="D857" s="1">
+        <v>1</v>
+      </c>
+      <c r="E857" s="1">
+        <v>1</v>
+      </c>
+      <c r="F857" s="1">
+        <v>3</v>
+      </c>
+      <c r="G857" s="1">
+        <v>1</v>
+      </c>
+      <c r="H857" s="1">
+        <v>1</v>
+      </c>
+      <c r="I857" s="1">
+        <v>0</v>
+      </c>
+      <c r="J857" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K857" t="s">
+      <c r="K857" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L857" t="s">
+      <c r="L857" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A858" t="s">
+    <row r="858" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A858" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B858" t="s">
+      <c r="B858" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C858">
+      <c r="C858" s="1">
         <v>42</v>
       </c>
-      <c r="D858">
-        <v>1</v>
-      </c>
-      <c r="E858">
-        <v>1</v>
-      </c>
-      <c r="F858">
-        <v>3</v>
-      </c>
-      <c r="G858">
-        <v>2</v>
-      </c>
-      <c r="H858">
-        <v>1</v>
-      </c>
-      <c r="I858">
-        <v>0</v>
-      </c>
-      <c r="J858" t="s">
+      <c r="D858" s="1">
+        <v>1</v>
+      </c>
+      <c r="E858" s="1">
+        <v>1</v>
+      </c>
+      <c r="F858" s="1">
+        <v>3</v>
+      </c>
+      <c r="G858" s="1">
+        <v>2</v>
+      </c>
+      <c r="H858" s="1">
+        <v>1</v>
+      </c>
+      <c r="I858" s="1">
+        <v>0</v>
+      </c>
+      <c r="J858" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K858" t="s">
+      <c r="K858" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L858" t="s">
+      <c r="L858" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A859" t="s">
+    <row r="859" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A859" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B859" t="s">
+      <c r="B859" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C859">
+      <c r="C859" s="1">
         <v>43</v>
       </c>
-      <c r="D859">
-        <v>1</v>
-      </c>
-      <c r="E859">
-        <v>1</v>
-      </c>
-      <c r="F859">
-        <v>3</v>
-      </c>
-      <c r="G859">
-        <v>3</v>
-      </c>
-      <c r="H859">
-        <v>1</v>
-      </c>
-      <c r="I859">
-        <v>0</v>
-      </c>
-      <c r="J859" t="s">
+      <c r="D859" s="1">
+        <v>1</v>
+      </c>
+      <c r="E859" s="1">
+        <v>1</v>
+      </c>
+      <c r="F859" s="1">
+        <v>3</v>
+      </c>
+      <c r="G859" s="1">
+        <v>3</v>
+      </c>
+      <c r="H859" s="1">
+        <v>1</v>
+      </c>
+      <c r="I859" s="1">
+        <v>0</v>
+      </c>
+      <c r="J859" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K859" t="s">
+      <c r="K859" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="L859" t="s">
+      <c r="L859" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -29072,117 +29072,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A862" t="s">
+    <row r="862" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A862" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B862" t="s">
+      <c r="B862" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C862">
+      <c r="C862" s="1">
         <v>45</v>
       </c>
-      <c r="D862">
-        <v>1</v>
-      </c>
-      <c r="E862">
-        <v>1</v>
-      </c>
-      <c r="F862">
-        <v>4</v>
-      </c>
-      <c r="G862">
-        <v>1</v>
-      </c>
-      <c r="H862">
-        <v>1</v>
-      </c>
-      <c r="I862">
-        <v>0</v>
-      </c>
-      <c r="J862" t="s">
+      <c r="D862" s="1">
+        <v>1</v>
+      </c>
+      <c r="E862" s="1">
+        <v>1</v>
+      </c>
+      <c r="F862" s="1">
+        <v>4</v>
+      </c>
+      <c r="G862" s="1">
+        <v>1</v>
+      </c>
+      <c r="H862" s="1">
+        <v>1</v>
+      </c>
+      <c r="I862" s="1">
+        <v>0</v>
+      </c>
+      <c r="J862" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K862" t="s">
+      <c r="K862" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L862" t="s">
+      <c r="L862" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A863" t="s">
+    <row r="863" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A863" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B863" t="s">
+      <c r="B863" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C863">
+      <c r="C863" s="1">
         <v>46</v>
       </c>
-      <c r="D863">
-        <v>1</v>
-      </c>
-      <c r="E863">
-        <v>1</v>
-      </c>
-      <c r="F863">
-        <v>4</v>
-      </c>
-      <c r="G863">
-        <v>2</v>
-      </c>
-      <c r="H863">
-        <v>1</v>
-      </c>
-      <c r="I863">
-        <v>0</v>
-      </c>
-      <c r="J863" t="s">
+      <c r="D863" s="1">
+        <v>1</v>
+      </c>
+      <c r="E863" s="1">
+        <v>1</v>
+      </c>
+      <c r="F863" s="1">
+        <v>4</v>
+      </c>
+      <c r="G863" s="1">
+        <v>2</v>
+      </c>
+      <c r="H863" s="1">
+        <v>1</v>
+      </c>
+      <c r="I863" s="1">
+        <v>0</v>
+      </c>
+      <c r="J863" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="K863" t="s">
+      <c r="K863" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L863" t="s">
+      <c r="L863" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A864" t="s">
+    <row r="864" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A864" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B864" t="s">
+      <c r="B864" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C864">
+      <c r="C864" s="1">
         <v>47</v>
       </c>
-      <c r="D864">
-        <v>1</v>
-      </c>
-      <c r="E864">
-        <v>1</v>
-      </c>
-      <c r="F864">
-        <v>4</v>
-      </c>
-      <c r="G864">
-        <v>3</v>
-      </c>
-      <c r="H864">
-        <v>1</v>
-      </c>
-      <c r="I864">
-        <v>0</v>
-      </c>
-      <c r="J864" t="s">
+      <c r="D864" s="1">
+        <v>1</v>
+      </c>
+      <c r="E864" s="1">
+        <v>1</v>
+      </c>
+      <c r="F864" s="1">
+        <v>4</v>
+      </c>
+      <c r="G864" s="1">
+        <v>3</v>
+      </c>
+      <c r="H864" s="1">
+        <v>1</v>
+      </c>
+      <c r="I864" s="1">
+        <v>0</v>
+      </c>
+      <c r="J864" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K864" t="s">
+      <c r="K864" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L864" t="s">
+      <c r="L864" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -29221,117 +29221,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A867" t="s">
+    <row r="867" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A867" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B867" t="s">
+      <c r="B867" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C867">
+      <c r="C867" s="1">
         <v>49</v>
       </c>
-      <c r="D867">
-        <v>1</v>
-      </c>
-      <c r="E867">
-        <v>2</v>
-      </c>
-      <c r="F867">
-        <v>1</v>
-      </c>
-      <c r="G867">
-        <v>1</v>
-      </c>
-      <c r="H867">
-        <v>1</v>
-      </c>
-      <c r="I867">
-        <v>0</v>
-      </c>
-      <c r="J867" t="s">
+      <c r="D867" s="1">
+        <v>1</v>
+      </c>
+      <c r="E867" s="1">
+        <v>2</v>
+      </c>
+      <c r="F867" s="1">
+        <v>1</v>
+      </c>
+      <c r="G867" s="1">
+        <v>1</v>
+      </c>
+      <c r="H867" s="1">
+        <v>1</v>
+      </c>
+      <c r="I867" s="1">
+        <v>0</v>
+      </c>
+      <c r="J867" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K867" t="s">
+      <c r="K867" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L867" t="s">
+      <c r="L867" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="868" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A868" t="s">
+    <row r="868" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A868" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B868" t="s">
+      <c r="B868" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C868">
+      <c r="C868" s="1">
         <v>50</v>
       </c>
-      <c r="D868">
-        <v>1</v>
-      </c>
-      <c r="E868">
-        <v>2</v>
-      </c>
-      <c r="F868">
-        <v>1</v>
-      </c>
-      <c r="G868">
-        <v>2</v>
-      </c>
-      <c r="H868">
-        <v>1</v>
-      </c>
-      <c r="I868">
-        <v>0</v>
-      </c>
-      <c r="J868" t="s">
+      <c r="D868" s="1">
+        <v>1</v>
+      </c>
+      <c r="E868" s="1">
+        <v>2</v>
+      </c>
+      <c r="F868" s="1">
+        <v>1</v>
+      </c>
+      <c r="G868" s="1">
+        <v>2</v>
+      </c>
+      <c r="H868" s="1">
+        <v>1</v>
+      </c>
+      <c r="I868" s="1">
+        <v>0</v>
+      </c>
+      <c r="J868" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="K868" t="s">
+      <c r="K868" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L868" t="s">
+      <c r="L868" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="869" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A869" t="s">
+    <row r="869" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B869" t="s">
+      <c r="B869" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C869">
+      <c r="C869" s="1">
         <v>51</v>
       </c>
-      <c r="D869">
-        <v>1</v>
-      </c>
-      <c r="E869">
-        <v>2</v>
-      </c>
-      <c r="F869">
-        <v>1</v>
-      </c>
-      <c r="G869">
-        <v>3</v>
-      </c>
-      <c r="H869">
-        <v>1</v>
-      </c>
-      <c r="I869">
-        <v>0</v>
-      </c>
-      <c r="J869" t="s">
+      <c r="D869" s="1">
+        <v>1</v>
+      </c>
+      <c r="E869" s="1">
+        <v>2</v>
+      </c>
+      <c r="F869" s="1">
+        <v>1</v>
+      </c>
+      <c r="G869" s="1">
+        <v>3</v>
+      </c>
+      <c r="H869" s="1">
+        <v>1</v>
+      </c>
+      <c r="I869" s="1">
+        <v>0</v>
+      </c>
+      <c r="J869" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K869" t="s">
+      <c r="K869" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="L869" t="s">
+      <c r="L869" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -29370,117 +29370,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A872" t="s">
+    <row r="872" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A872" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B872" t="s">
+      <c r="B872" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C872">
+      <c r="C872" s="1">
         <v>53</v>
       </c>
-      <c r="D872">
-        <v>1</v>
-      </c>
-      <c r="E872">
-        <v>2</v>
-      </c>
-      <c r="F872">
-        <v>2</v>
-      </c>
-      <c r="G872">
-        <v>1</v>
-      </c>
-      <c r="H872">
-        <v>1</v>
-      </c>
-      <c r="I872">
-        <v>0</v>
-      </c>
-      <c r="J872" t="s">
+      <c r="D872" s="1">
+        <v>1</v>
+      </c>
+      <c r="E872" s="1">
+        <v>2</v>
+      </c>
+      <c r="F872" s="1">
+        <v>2</v>
+      </c>
+      <c r="G872" s="1">
+        <v>1</v>
+      </c>
+      <c r="H872" s="1">
+        <v>1</v>
+      </c>
+      <c r="I872" s="1">
+        <v>0</v>
+      </c>
+      <c r="J872" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K872" t="s">
+      <c r="K872" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L872" t="s">
+      <c r="L872" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="873" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A873" t="s">
+    <row r="873" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A873" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B873" t="s">
+      <c r="B873" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C873">
+      <c r="C873" s="1">
         <v>54</v>
       </c>
-      <c r="D873">
-        <v>1</v>
-      </c>
-      <c r="E873">
-        <v>2</v>
-      </c>
-      <c r="F873">
-        <v>2</v>
-      </c>
-      <c r="G873">
-        <v>2</v>
-      </c>
-      <c r="H873">
-        <v>1</v>
-      </c>
-      <c r="I873">
-        <v>0</v>
-      </c>
-      <c r="J873" t="s">
+      <c r="D873" s="1">
+        <v>1</v>
+      </c>
+      <c r="E873" s="1">
+        <v>2</v>
+      </c>
+      <c r="F873" s="1">
+        <v>2</v>
+      </c>
+      <c r="G873" s="1">
+        <v>2</v>
+      </c>
+      <c r="H873" s="1">
+        <v>1</v>
+      </c>
+      <c r="I873" s="1">
+        <v>0</v>
+      </c>
+      <c r="J873" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K873" t="s">
+      <c r="K873" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L873" t="s">
+      <c r="L873" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="874" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A874" t="s">
+    <row r="874" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A874" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B874" t="s">
+      <c r="B874" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C874">
+      <c r="C874" s="1">
         <v>55</v>
       </c>
-      <c r="D874">
-        <v>1</v>
-      </c>
-      <c r="E874">
-        <v>2</v>
-      </c>
-      <c r="F874">
-        <v>2</v>
-      </c>
-      <c r="G874">
-        <v>3</v>
-      </c>
-      <c r="H874">
-        <v>1</v>
-      </c>
-      <c r="I874">
-        <v>0</v>
-      </c>
-      <c r="J874" t="s">
+      <c r="D874" s="1">
+        <v>1</v>
+      </c>
+      <c r="E874" s="1">
+        <v>2</v>
+      </c>
+      <c r="F874" s="1">
+        <v>2</v>
+      </c>
+      <c r="G874" s="1">
+        <v>3</v>
+      </c>
+      <c r="H874" s="1">
+        <v>1</v>
+      </c>
+      <c r="I874" s="1">
+        <v>0</v>
+      </c>
+      <c r="J874" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="K874" t="s">
+      <c r="K874" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="L874" t="s">
+      <c r="L874" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -29519,114 +29519,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A877" t="s">
+    <row r="877" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A877" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B877" t="s">
+      <c r="B877" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C877">
+      <c r="C877" s="1">
         <v>57</v>
       </c>
-      <c r="D877">
-        <v>1</v>
-      </c>
-      <c r="E877">
-        <v>2</v>
-      </c>
-      <c r="F877">
-        <v>3</v>
-      </c>
-      <c r="G877">
-        <v>1</v>
-      </c>
-      <c r="H877">
-        <v>1</v>
-      </c>
-      <c r="I877">
-        <v>0</v>
-      </c>
-      <c r="J877" t="s">
+      <c r="D877" s="1">
+        <v>1</v>
+      </c>
+      <c r="E877" s="1">
+        <v>2</v>
+      </c>
+      <c r="F877" s="1">
+        <v>3</v>
+      </c>
+      <c r="G877" s="1">
+        <v>1</v>
+      </c>
+      <c r="H877" s="1">
+        <v>1</v>
+      </c>
+      <c r="I877" s="1">
+        <v>0</v>
+      </c>
+      <c r="J877" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K877" t="s">
+      <c r="K877" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L877">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="878" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A878" t="s">
+      <c r="L877" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A878" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B878" t="s">
+      <c r="B878" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C878">
+      <c r="C878" s="1">
         <v>58</v>
       </c>
-      <c r="D878">
-        <v>1</v>
-      </c>
-      <c r="E878">
-        <v>2</v>
-      </c>
-      <c r="F878">
-        <v>3</v>
-      </c>
-      <c r="G878">
-        <v>2</v>
-      </c>
-      <c r="H878">
-        <v>1</v>
-      </c>
-      <c r="I878">
-        <v>0</v>
-      </c>
-      <c r="J878" t="s">
+      <c r="D878" s="1">
+        <v>1</v>
+      </c>
+      <c r="E878" s="1">
+        <v>2</v>
+      </c>
+      <c r="F878" s="1">
+        <v>3</v>
+      </c>
+      <c r="G878" s="1">
+        <v>2</v>
+      </c>
+      <c r="H878" s="1">
+        <v>1</v>
+      </c>
+      <c r="I878" s="1">
+        <v>0</v>
+      </c>
+      <c r="J878" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K878" t="s">
+      <c r="K878" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L878">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="879" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A879" t="s">
+      <c r="L878" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A879" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B879" t="s">
+      <c r="B879" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C879">
+      <c r="C879" s="1">
         <v>59</v>
       </c>
-      <c r="D879">
-        <v>1</v>
-      </c>
-      <c r="E879">
-        <v>2</v>
-      </c>
-      <c r="F879">
-        <v>3</v>
-      </c>
-      <c r="G879">
-        <v>3</v>
-      </c>
-      <c r="H879">
-        <v>1</v>
-      </c>
-      <c r="I879">
-        <v>0</v>
-      </c>
-      <c r="K879" t="s">
+      <c r="D879" s="1">
+        <v>1</v>
+      </c>
+      <c r="E879" s="1">
+        <v>2</v>
+      </c>
+      <c r="F879" s="1">
+        <v>3</v>
+      </c>
+      <c r="G879" s="1">
+        <v>3</v>
+      </c>
+      <c r="H879" s="1">
+        <v>1</v>
+      </c>
+      <c r="I879" s="1">
+        <v>0</v>
+      </c>
+      <c r="K879" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L879">
+      <c r="L879" s="1">
         <v>0</v>
       </c>
     </row>
@@ -29665,114 +29665,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A882" t="s">
+    <row r="882" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A882" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B882" t="s">
+      <c r="B882" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C882">
+      <c r="C882" s="1">
         <v>61</v>
       </c>
-      <c r="D882">
-        <v>1</v>
-      </c>
-      <c r="E882">
-        <v>2</v>
-      </c>
-      <c r="F882">
-        <v>4</v>
-      </c>
-      <c r="G882">
-        <v>1</v>
-      </c>
-      <c r="H882">
-        <v>1</v>
-      </c>
-      <c r="I882">
-        <v>0</v>
-      </c>
-      <c r="J882" t="s">
+      <c r="D882" s="1">
+        <v>1</v>
+      </c>
+      <c r="E882" s="1">
+        <v>2</v>
+      </c>
+      <c r="F882" s="1">
+        <v>4</v>
+      </c>
+      <c r="G882" s="1">
+        <v>1</v>
+      </c>
+      <c r="H882" s="1">
+        <v>1</v>
+      </c>
+      <c r="I882" s="1">
+        <v>0</v>
+      </c>
+      <c r="J882" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K882" t="s">
+      <c r="K882" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L882">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="883" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A883" t="s">
+      <c r="L882" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A883" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B883" t="s">
+      <c r="B883" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C883">
+      <c r="C883" s="1">
         <v>62</v>
       </c>
-      <c r="D883">
-        <v>1</v>
-      </c>
-      <c r="E883">
-        <v>2</v>
-      </c>
-      <c r="F883">
-        <v>4</v>
-      </c>
-      <c r="G883">
-        <v>2</v>
-      </c>
-      <c r="H883">
-        <v>1</v>
-      </c>
-      <c r="I883">
-        <v>0</v>
-      </c>
-      <c r="J883" t="s">
+      <c r="D883" s="1">
+        <v>1</v>
+      </c>
+      <c r="E883" s="1">
+        <v>2</v>
+      </c>
+      <c r="F883" s="1">
+        <v>4</v>
+      </c>
+      <c r="G883" s="1">
+        <v>2</v>
+      </c>
+      <c r="H883" s="1">
+        <v>1</v>
+      </c>
+      <c r="I883" s="1">
+        <v>0</v>
+      </c>
+      <c r="J883" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K883" t="s">
+      <c r="K883" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L883">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="884" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A884" t="s">
+      <c r="L883" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A884" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B884" t="s">
+      <c r="B884" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C884">
+      <c r="C884" s="1">
         <v>63</v>
       </c>
-      <c r="D884">
-        <v>1</v>
-      </c>
-      <c r="E884">
-        <v>2</v>
-      </c>
-      <c r="F884">
-        <v>4</v>
-      </c>
-      <c r="G884">
-        <v>3</v>
-      </c>
-      <c r="H884">
-        <v>1</v>
-      </c>
-      <c r="I884">
-        <v>0</v>
-      </c>
-      <c r="K884" t="s">
+      <c r="D884" s="1">
+        <v>1</v>
+      </c>
+      <c r="E884" s="1">
+        <v>2</v>
+      </c>
+      <c r="F884" s="1">
+        <v>4</v>
+      </c>
+      <c r="G884" s="1">
+        <v>3</v>
+      </c>
+      <c r="H884" s="1">
+        <v>1</v>
+      </c>
+      <c r="I884" s="1">
+        <v>0</v>
+      </c>
+      <c r="K884" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L884">
+      <c r="L884" s="1">
         <v>0</v>
       </c>
     </row>
